--- a/biology/Zoologie/Chlamys_bezieri/Chlamys_bezieri.xlsx
+++ b/biology/Zoologie/Chlamys_bezieri/Chlamys_bezieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlamys bezieri[2] est une espèce éteinte de mollusques bivalves ayant vécu au Miocène[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlamys bezieri est une espèce éteinte de mollusques bivalves ayant vécu au Miocène.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été décrit par Maurice Cossmann en 1919[1]. Charles Armand Picquenard indique que Maurice Cossmann l'a décrite dans sa Monographie, illustrée des Mollusques oligocéniques, pp. 139-140 sous le nom de Chlamys bezieri, en provenance de Saint-Grégoire, à la place de Talochlamys multistriata.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été décrit par Maurice Cossmann en 1919. Charles Armand Picquenard indique que Maurice Cossmann l'a décrite dans sa Monographie, illustrée des Mollusques oligocéniques, pp. 139-140 sous le nom de Chlamys bezieri, en provenance de Saint-Grégoire, à la place de Talochlamys multistriata.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Cossmann indique dans sa description : Taille assez grande ; valves également et médiocrement bombées ; forme étroite et haute, presque symétrique ; oreillettes inégales, surtout sur la valve droite,- où l'antérieure est très profondément échancrée par le sinus byssal, avec quatre dentelons aigus et écartés, formant la filière ; l'oreillette postérieure est, au contraire, à peine distincte et tout à fait scalène ; sur les deux valves, le bord cardinal est Rectiligne, l'angle apical ne dépasse guère 75°. Surface externe ornée d'un grand nombre de costules rayonnantes; aplaties, très serrées, parfois inégales, toujours séparées par des sillons beaucoup plus étroits, au fond desquels on distingue des lignes d'accroissement très serrées, tandis que — sur le sommet des côtes — il y a des tirets transverses, assez écartés ; les oreillettes, particulièrement l'antérieure de la valve droite, sont ornées de costules rayonnantes et finement crénelées. À l'intérieur, il y a — sur le bord cardinal — deux ou trois sillons ligamentaires, divergents, entre lesquels une assez large fossette isocèle. — Diamètre antéro-postérieur : 27 mm. ; diamètre umbono-palléal : 35 mm..
 </t>
